--- a/课件/js第三周考试题/1701考试结果/JavaScript第三周考试成绩.xlsx
+++ b/课件/js第三周考试题/1701考试结果/JavaScript第三周考试成绩.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="笔试" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">笔试!$A$1:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">机试!$A$2:$F$29</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -343,9 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,6 +361,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,7 +655,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="183" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,94 +678,94 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>27</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>17</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>6</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <f t="shared" ref="E3:E29" si="0">SUM(B3:D3)</f>
         <v>50</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>30</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>15</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>7</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>33</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>18</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>5</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>28.5</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>14</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>14</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
@@ -777,17 +778,17 @@
         <v>20</v>
       </c>
       <c r="D7" s="17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" si="0"/>
-        <v>57.5</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+        <v>60.5</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="2">
@@ -803,11 +804,11 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2">
@@ -823,32 +824,32 @@
         <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>36</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>16</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>10</v>
       </c>
-      <c r="E10" s="14">
-        <f t="shared" si="0"/>
+      <c r="E10" s="13">
+        <f>SUM(B10:D10)</f>
         <v>62</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="2">
@@ -864,11 +865,11 @@
         <f t="shared" si="0"/>
         <v>63.5</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2">
@@ -884,11 +885,11 @@
         <f t="shared" si="0"/>
         <v>65.5</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2">
@@ -904,11 +905,11 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2">
@@ -924,11 +925,11 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2">
@@ -944,11 +945,11 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="2">
@@ -964,11 +965,11 @@
         <f t="shared" si="0"/>
         <v>69.5</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2">
@@ -984,11 +985,11 @@
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2">
@@ -1004,11 +1005,11 @@
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="2">
@@ -1017,18 +1018,18 @@
       <c r="C19" s="2">
         <v>20</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>24</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2">
@@ -1037,38 +1038,38 @@
       <c r="C20" s="2">
         <v>25</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>15</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>34.5</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>25</v>
       </c>
-      <c r="D21" s="10">
-        <v>20</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="9">
+        <v>20</v>
+      </c>
+      <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2">
@@ -1077,39 +1078,39 @@
       <c r="C22" s="2">
         <v>22</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>20</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>36</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>22</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>25</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="2">
@@ -1118,18 +1119,18 @@
       <c r="C24" s="2">
         <v>20</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>26</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="2">
@@ -1138,18 +1139,18 @@
       <c r="C25" s="2">
         <v>20</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>29</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="4">
@@ -1158,18 +1159,18 @@
       <c r="C26" s="4">
         <v>25</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>24</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="4">
@@ -1178,18 +1179,18 @@
       <c r="C27" s="4">
         <v>20</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>25</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4">
@@ -1198,18 +1199,18 @@
       <c r="C28" s="4">
         <v>25</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>27</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="4">
@@ -1218,15 +1219,15 @@
       <c r="C29" s="4">
         <v>25</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>27</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F29">
@@ -1253,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="188" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="188" workbookViewId="0">
+      <selection activeCell="F9" sqref="A3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1293,374 +1294,579 @@
       </c>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="18">
+        <v>12</v>
+      </c>
+      <c r="C3" s="18">
+        <v>20</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <f>SUM(B3:E3)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="18">
+        <v>10</v>
+      </c>
+      <c r="C4" s="18">
+        <v>12</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18">
+        <f>SUM(B4:E4)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="18">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18">
+        <v>20</v>
+      </c>
+      <c r="D5" s="18">
+        <v>10</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <f>SUM(B5:E5)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="18">
+        <v>20</v>
+      </c>
+      <c r="C6" s="18">
+        <v>20</v>
+      </c>
+      <c r="D6" s="18">
+        <v>5</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <f>SUM(B6:E6)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <f>SUM(B7:E7)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="18">
+        <v>12</v>
+      </c>
+      <c r="C8" s="18">
+        <v>20</v>
+      </c>
+      <c r="D8" s="18">
+        <v>15</v>
+      </c>
+      <c r="E8" s="18">
+        <v>4</v>
+      </c>
+      <c r="F8" s="18">
+        <f>SUM(B8:E8)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <f>SUM(B9:E9)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7">
+        <f>SUM(B10:E10)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="18">
+        <v>20</v>
+      </c>
+      <c r="C11" s="18">
+        <v>20</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>18</v>
+      </c>
+      <c r="F11" s="18">
+        <f>SUM(B11:E11)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="18">
+        <v>20</v>
+      </c>
+      <c r="C12" s="18">
+        <v>14</v>
+      </c>
+      <c r="D12" s="18">
+        <v>26</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <f>SUM(B12:E12)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <f t="shared" ref="F3:F29" si="0">SUM(B3:E3)</f>
+      <c r="B13" s="7">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7">
+        <f>SUM(B13:E13)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>25</v>
+      </c>
+      <c r="F14" s="7">
+        <f>SUM(B14:E14)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <f t="shared" si="0"/>
+      <c r="F15" s="7">
+        <f>SUM(B15:E15)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
+      <c r="F16" s="2">
+        <f>SUM(B16:E16)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="18">
+        <v>20</v>
+      </c>
+      <c r="C17" s="18">
+        <v>18</v>
+      </c>
+      <c r="D17" s="18">
+        <v>25</v>
+      </c>
+      <c r="E17" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
+      <c r="F17" s="18">
+        <f>SUM(B17:E17)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <v>26</v>
+      </c>
+      <c r="E18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
+      <c r="F18" s="8">
+        <f>SUM(B18:E18)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2">
+        <f>SUM(B19:E19)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="18">
+        <v>20</v>
+      </c>
+      <c r="C20" s="18">
+        <v>20</v>
+      </c>
+      <c r="D20" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="E20" s="18">
+        <v>30</v>
+      </c>
+      <c r="F20" s="18">
+        <f>SUM(B20:E20)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20</v>
+      </c>
+      <c r="C21" s="18">
+        <v>20</v>
+      </c>
+      <c r="D21" s="18">
+        <v>18</v>
+      </c>
+      <c r="E21" s="18">
+        <v>15</v>
+      </c>
+      <c r="F21" s="18">
+        <f>SUM(B21:E21)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="7">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7">
+        <v>18</v>
+      </c>
+      <c r="E22" s="7">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="F22" s="8">
+        <f>SUM(B22:E22)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="18">
+        <v>16</v>
+      </c>
+      <c r="C23" s="18">
+        <v>12</v>
+      </c>
+      <c r="D23" s="18">
+        <v>20</v>
+      </c>
+      <c r="E23" s="18">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="F23" s="18">
+        <f>SUM(B23:E23)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="5">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2">
-        <v>15</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="B24" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C24" s="7">
         <v>20</v>
       </c>
       <c r="D24" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E24" s="7">
         <v>30</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:E24)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="18">
+        <v>12</v>
+      </c>
+      <c r="C25" s="18">
+        <v>20</v>
+      </c>
+      <c r="D25" s="18">
+        <v>24</v>
+      </c>
+      <c r="E25" s="18">
+        <v>27</v>
+      </c>
+      <c r="F25" s="18">
+        <f>SUM(B25:E25)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6">
+        <v>24</v>
+      </c>
+      <c r="E26" s="6">
+        <v>29</v>
+      </c>
+      <c r="F26" s="2">
+        <f>SUM(B26:E26)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6">
+        <v>19</v>
+      </c>
+      <c r="D27" s="6">
+        <v>30</v>
+      </c>
+      <c r="E27" s="6">
+        <v>20</v>
+      </c>
+      <c r="F27" s="6">
+        <f>SUM(B27:E27)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>20</v>
+      </c>
+      <c r="D28" s="7">
+        <v>30</v>
+      </c>
+      <c r="E28" s="7">
+        <v>30</v>
+      </c>
+      <c r="F28" s="7">
+        <f>SUM(B28:E28)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="7">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7">
+        <v>30</v>
+      </c>
+      <c r="E29" s="7">
+        <v>30</v>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(B29:E29)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A2:F29">
+    <sortState ref="A4:F29">
+      <sortCondition ref="F2:F29"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A3:F33">
     <sortCondition ref="F1"/>
   </sortState>

--- a/课件/js第三周考试题/1701考试结果/JavaScript第三周考试成绩.xlsx
+++ b/课件/js第三周考试题/1701考试结果/JavaScript第三周考试成绩.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="笔试" sheetId="1" r:id="rId1"/>
@@ -308,9 +308,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -373,11 +377,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -655,7 +663,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="183" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,7 +1263,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="188" workbookViewId="0">
-      <selection activeCell="F9" sqref="A3:F9"/>
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1311,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f>SUM(B3:E3)</f>
+        <f t="shared" ref="F3:F29" si="0">SUM(B3:E3)</f>
         <v>33</v>
       </c>
     </row>
@@ -1332,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="18">
-        <f>SUM(B4:E4)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
@@ -1353,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="18">
-        <f>SUM(B5:E5)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -1374,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="18">
-        <f>SUM(B6:E6)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -1395,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="7">
-        <f>SUM(B7:E7)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -1416,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="18">
-        <f>SUM(B8:E8)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
@@ -1437,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <f>SUM(B9:E9)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
@@ -1458,7 +1466,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="7">
-        <f>SUM(B10:E10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -1479,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="18">
-        <f>SUM(B11:E11)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -1500,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <f>SUM(B12:E12)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -1521,7 +1529,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="7">
-        <f>SUM(B13:E13)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -1542,7 +1550,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="7">
-        <f>SUM(B14:E14)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -1563,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <f>SUM(B15:E15)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
@@ -1584,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <f>SUM(B16:E16)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
@@ -1605,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="18">
-        <f>SUM(B17:E17)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
@@ -1626,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <f>SUM(B18:E18)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
@@ -1647,7 +1655,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="2">
-        <f>SUM(B19:E19)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
@@ -1668,7 +1676,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="18">
-        <f>SUM(B20:E20)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -1689,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="F21" s="18">
-        <f>SUM(B21:E21)</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
@@ -1710,7 +1718,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="8">
-        <f>SUM(B22:E22)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
@@ -1731,7 +1739,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="18">
-        <f>SUM(B23:E23)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
@@ -1752,7 +1760,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="8">
-        <f>SUM(B24:E24)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -1773,7 +1781,7 @@
         <v>27</v>
       </c>
       <c r="F25" s="18">
-        <f>SUM(B25:E25)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
@@ -1794,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="2">
-        <f>SUM(B26:E26)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
@@ -1815,7 +1823,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="6">
-        <f>SUM(B27:E27)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
     </row>
@@ -1836,7 +1844,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="7">
-        <f>SUM(B28:E28)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -1857,7 +1865,7 @@
         <v>30</v>
       </c>
       <c r="F29" s="8">
-        <f>SUM(B29:E29)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
